--- a/data/trans_camb/P7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,34</t>
+          <t>-10,75; 6,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,49</t>
+          <t>0,0; 17,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,49</t>
+          <t>0,0; 17,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,74</t>
+          <t>-4,66; 12,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 20,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 19,82</t>
+          <t>-10,72; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 13,82</t>
+          <t>-17,69; -1,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 15,52</t>
+          <t>-9,45; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 15,14</t>
+          <t>-4,65; 3,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 3,37</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; 2,55</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 3,12</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>-6,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>-1,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>-0,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,99%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,48</t>
+          <t>-11,0; 6,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,29</t>
+          <t>0,0; 21,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,29</t>
+          <t>0,0; 21,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,14</t>
+          <t>-4,68; 14,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 26,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 25,43</t>
+          <t>-10,72; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 16,12</t>
+          <t>-17,69; -1,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 18,54</t>
+          <t>-9,45; 0,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 18,0</t>
+          <t>-4,69; 2,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 3,48</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 2,61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 3,27</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-5,91</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-3,33</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-5,18</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 9,14</t>
+          <t>-7,86; 9,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 6,08</t>
+          <t>-13,12; 6,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 5,12</t>
+          <t>-19,79; 3,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 0,0</t>
+          <t>-15,18; 5,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,0</t>
+          <t>-9,47; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,0</t>
+          <t>-11,48; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,94</t>
+          <t>-12,82; 0,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,21</t>
+          <t>-10,75; 0,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 1,52</t>
+          <t>-5,33; 3,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; 1,58</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 0,05</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 1,02</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-3,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-1,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,29%</t>
+          <t>-3,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>-0,83%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-3,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-5,29%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-3,64%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 10,49</t>
+          <t>-7,99; 10,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 7,06</t>
+          <t>-13,78; 6,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 5,84</t>
+          <t>-20,99; 3,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 0,0</t>
+          <t>-15,56; 5,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,0</t>
+          <t>-9,47; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 0,0</t>
+          <t>-11,48; 0,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 4,21</t>
+          <t>-12,82; 0,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,33</t>
+          <t>-10,75; 0,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 1,6</t>
+          <t>-5,38; 3,38</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 1,55</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-11,81; 0,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; 1,07</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 6,7</t>
+          <t>-12,22; 8,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 4,49</t>
+          <t>-15,15; 7,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 4,55</t>
+          <t>-16,39; 5,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,83</t>
+          <t>-17,71; 5,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,61</t>
+          <t>-1,66; 2,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,61</t>
+          <t>-5,28; 1,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,11</t>
+          <t>-5,4; 1,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,75</t>
+          <t>-6,01; 1,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 1,29</t>
+          <t>-4,75; 3,61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 2,93</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 1,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; 1,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>-4,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>-0,46%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,2%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-3,63%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 7,48</t>
+          <t>-12,66; 9,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 4,9</t>
+          <t>-16,33; 8,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 4,91</t>
+          <t>-17,76; 6,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,87</t>
+          <t>-18,57; 5,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 0,61</t>
+          <t>-1,66; 2,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,61</t>
+          <t>-5,31; 1,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,25</t>
+          <t>-5,43; 1,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,83</t>
+          <t>-6,05; 1,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 1,34</t>
+          <t>-4,85; 3,81</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; 3,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,65; 1,67</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-9,15; 1,5</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 5,35</t>
+          <t>-8,43; 6,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 5,79</t>
+          <t>-9,25; 6,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 6,03</t>
+          <t>-8,51; 6,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,77</t>
+          <t>-13,52; 4,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,16</t>
+          <t>-5,94; 6,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,8</t>
+          <t>-6,81; 6,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,67</t>
+          <t>-5,77; 7,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,38</t>
+          <t>-7,48; 5,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,73</t>
+          <t>-5,58; 4,54</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 4,41</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 5,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 2,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>-1,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>-1,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>-0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-0,65%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-0,77%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 5,93</t>
+          <t>-9,27; 7,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 6,57</t>
+          <t>-9,42; 5,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 6,81</t>
+          <t>-8,8; 7,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 5,08</t>
+          <t>-14,12; 4,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 4,54</t>
+          <t>-6,2; 7,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,27</t>
+          <t>-6,94; 7,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 4,02</t>
+          <t>-5,96; 8,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,69</t>
+          <t>-7,87; 6,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,04</t>
+          <t>-5,84; 4,98</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 4,82</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 5,49</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 3,14</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-5,6</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 10,31</t>
+          <t>-21,15; 13,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 10,31</t>
+          <t>-22,15; 13,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 11,06</t>
+          <t>-17,39; 14,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 12,07</t>
+          <t>-18,88; 12,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 12,79</t>
+          <t>-11,87; 15,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 11,22</t>
+          <t>-11,51; 15,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 8,31</t>
+          <t>-15,03; 13,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 8,4</t>
+          <t>-23,72; 6,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 7,88</t>
+          <t>-13,46; 10,73</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 10,61</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-12,68; 10,01</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-17,28; 6,06</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-0,4%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-6,29%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 11,98</t>
+          <t>-22,38; 15,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 12,53</t>
+          <t>-23,46; 15,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 13,19</t>
+          <t>-18,47; 17,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 15,17</t>
+          <t>-20,04; 15,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 16,25</t>
+          <t>-12,95; 18,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 14,4</t>
+          <t>-12,34; 19,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 9,61</t>
+          <t>-16,31; 16,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 10,04</t>
+          <t>-26,65; 8,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 9,3</t>
+          <t>-14,5; 12,71</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-15,63; 12,59</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-13,6; 12,03</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-19,01; 7,05</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 9,02</t>
+          <t>-7,21; 4,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 9,52</t>
+          <t>-4,58; 7,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 8,41</t>
+          <t>-7,83; 4,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 11,86</t>
+          <t>-11,09; 4,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 13,84</t>
+          <t>-19,51; 16,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 15,53</t>
+          <t>-18,53; 16,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 7,87</t>
+          <t>-19,2; 17,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 8,93</t>
+          <t>-15,74; 19,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 9,31</t>
+          <t>-10,24; 11,25</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-10,32; 11,54</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; 11,14</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 10,96</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-0,1%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 10,52</t>
+          <t>-7,29; 5,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 11,05</t>
+          <t>-4,61; 7,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 9,58</t>
+          <t>-7,91; 4,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 15,54</t>
+          <t>-11,13; 4,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 19,13</t>
+          <t>-22,55; 25,31</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 21,73</t>
+          <t>-22,49; 25,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 9,75</t>
+          <t>-22,83; 26,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 11,14</t>
+          <t>-17,94; 31,26</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 11,56</t>
+          <t>-11,57; 14,36</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-11,29; 14,61</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-11,59; 14,19</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 13,87</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
           <t>-0,42</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,04</t>
+          <t>-5,54; 4,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 2,76</t>
+          <t>-6,01; 3,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,55</t>
+          <t>-5,87; 3,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,99</t>
+          <t>-7,09; 1,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,74</t>
+          <t>-3,28; 2,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,65</t>
+          <t>-4,65; 2,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,79</t>
+          <t>-5,68; 1,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,42</t>
+          <t>-7,15; 0,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,34</t>
+          <t>-3,35; 2,3</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 1,79</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 0,88</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; -0,01</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>-2,91%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-3,38%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>-0,44%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-1,14%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-3,14%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,31</t>
+          <t>-5,74; 4,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,99</t>
+          <t>-6,24; 3,52</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,78</t>
+          <t>-6,13; 3,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,43</t>
+          <t>-7,46; 2,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 4,12</t>
+          <t>-3,42; 3,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,07</t>
+          <t>-4,9; 2,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,06</t>
+          <t>-5,86; 1,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,65</t>
+          <t>-7,47; 0,24</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,57</t>
+          <t>-3,54; 2,48</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 1,92</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 0,93</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; -0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
